--- a/biology/Botanique/Jardin_Laure-Albin-Guillot/Jardin_Laure-Albin-Guillot.xlsx
+++ b/biology/Botanique/Jardin_Laure-Albin-Guillot/Jardin_Laure-Albin-Guillot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Laure Albin-Guillot est un espace vert  dans le 13e arrondissement de Paris, dans le quartier de la Maison-Blanche.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin Laure Albin-Guillot est desservi à proximité par la ligne 7 à la station Porte d'Italie et par la ligne 3a du tramway d'Île-de-France à la station Porte d'Italie.
 Il sera prochainement desservie également par la ligne 14 à la station Maison Blanche.
@@ -544,11 +558,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est l'élément central du nouveau quartier situé entre le square Rosny-Aîné, la rue Gerda-Taro, la rue Paul-Bourget et la rue Germaine-Krull[1].
-Il fait partie de la ceinture verte[1] du 13e arrondissement et tient lieu de voie verte entre l'avenue de la Porte-d'Italie et le Parc Kellermann.
-Les arbres sont des tilleuls, des mélèzes et des sophoras[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est l'élément central du nouveau quartier situé entre le square Rosny-Aîné, la rue Gerda-Taro, la rue Paul-Bourget et la rue Germaine-Krull.
+Il fait partie de la ceinture verte du 13e arrondissement et tient lieu de voie verte entre l'avenue de la Porte-d'Italie et le Parc Kellermann.
+Les arbres sont des tilleuls, des mélèzes et des sophoras.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin rend hommage à la photographe française Laure Albin-Guillot (1879-1962). 
 </t>
@@ -608,9 +626,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin a été planifié dans le cadre de l'opération urbaine d'envergure d'aménagement du nouveau quartier et a été nommé officiellement par délibération du Conseil du 13e arrondissement et du Conseil de Paris[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin a été planifié dans le cadre de l'opération urbaine d'envergure d'aménagement du nouveau quartier et a été nommé officiellement par délibération du Conseil du 13e arrondissement et du Conseil de Paris.
 </t>
         </is>
       </c>
